--- a/原始数据/零售市场部协同外拓及理财转介业绩报送-16.xlsx
+++ b/原始数据/零售市场部协同外拓及理财转介业绩报送-16.xlsx
@@ -8,12 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="外拓双算报送" sheetId="2" r:id="rId1"/>
-    <sheet name="财富业务转介报送" sheetId="3" r:id="rId2"/>
-    <sheet name="企微添加数" sheetId="4" r:id="rId3"/>
+    <sheet name="企微添加数" sheetId="3" r:id="rId2"/>
+    <sheet name="纯公转介填报" sheetId="4" r:id="rId3"/>
+    <sheet name="财富业务转介报送" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">企微添加数!$A$1:$D$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">外拓双算报送!$A$1:$K$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">财富业务转介报送!$A$1:$E$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">财富业务转介报送!$A$1:$E$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="270">
   <si>
     <t>外拓日期</t>
   </si>
@@ -153,6 +155,33 @@
     <t>川沙支行</t>
   </si>
   <si>
+    <t>当日企微添加数-管户客户</t>
+  </si>
+  <si>
+    <t>非管户客户2月不纳入考核</t>
+  </si>
+  <si>
+    <t>添加日期</t>
+  </si>
+  <si>
+    <t>陈名</t>
+  </si>
+  <si>
+    <t>孙仰阳</t>
+  </si>
+  <si>
+    <t>宋丽凤</t>
+  </si>
+  <si>
+    <t>顾伟丽</t>
+  </si>
+  <si>
+    <t>转介纯公客户数</t>
+  </si>
+  <si>
+    <t>转介日期</t>
+  </si>
+  <si>
     <t>转介客户姓名</t>
   </si>
   <si>
@@ -327,9 +356,6 @@
     <t>张保国</t>
   </si>
   <si>
-    <t>宋丽凤</t>
-  </si>
-  <si>
     <t>张惠雪</t>
   </si>
   <si>
@@ -390,9 +416,6 @@
     <t>周辰峰</t>
   </si>
   <si>
-    <t>孙仰阳</t>
-  </si>
-  <si>
     <t>钱宇</t>
   </si>
   <si>
@@ -432,9 +455,6 @@
     <t>500元</t>
   </si>
   <si>
-    <t>陈名</t>
-  </si>
-  <si>
     <t>张丽</t>
   </si>
   <si>
@@ -564,9 +584,6 @@
     <t>1000元</t>
   </si>
   <si>
-    <t>顾伟丽</t>
-  </si>
-  <si>
     <t>张一恒</t>
   </si>
   <si>
@@ -825,16 +842,13 @@
     <t>南银7号</t>
   </si>
   <si>
-    <t>以下为2025年2月业绩填报</t>
-  </si>
-  <si>
-    <t>当日企微添加数-管户客户</t>
-  </si>
-  <si>
-    <t>当日企微添加数-非管户客户</t>
-  </si>
-  <si>
-    <t>添加日期</t>
+    <t>1月补填</t>
+  </si>
+  <si>
+    <t>2025年2月起不再考核财富转介户数</t>
+  </si>
+  <si>
+    <t>郑艳萍</t>
   </si>
 </sst>
 </file>
@@ -862,12 +876,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -877,6 +885,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1514,17 +1528,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1536,23 +1565,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1563,7 +1580,7 @@
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1572,10 +1589,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -2131,2389 +2148,2404 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="7" width="11.3333333333333" style="6"/>
-    <col min="8" max="9" width="11.3333333333333" style="13"/>
-    <col min="10" max="11" width="11.3333333333333" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="11.3333333333333" style="6"/>
+    <col min="1" max="7" width="11.3333333333333" style="11"/>
+    <col min="8" max="9" width="11.3333333333333" style="14"/>
+    <col min="10" max="11" width="11.3333333333333" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="11.3333333333333" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" spans="1:11">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:11">
-      <c r="A2" s="15">
+      <c r="A2" s="16">
         <v>45632</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="11">
         <v>2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="11">
         <v>6</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="11">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="11">
         <v>4</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="14">
         <f t="shared" ref="H2:H28" si="0">D2-F2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="14">
         <f t="shared" ref="I2:I65" si="1">E2-G2</f>
         <v>2</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="11">
         <f t="shared" ref="J2:J58" si="2">H2+I2</f>
         <v>3</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="11">
         <f t="shared" ref="K2:K39" si="3">G2*2+F2</f>
         <v>9</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:11">
-      <c r="A3" s="15">
+      <c r="A3" s="16">
         <v>45635</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="11">
         <v>5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="11">
         <v>4</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="11">
         <v>1</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="11">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="4" hidden="1" spans="1:11">
-      <c r="A4" s="15">
+      <c r="A4" s="16">
         <v>45628</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="11">
         <v>10</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="11">
         <v>10</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="11">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="5" hidden="1" spans="1:11">
-      <c r="A5" s="15">
+      <c r="A5" s="16">
         <v>45629</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="11">
         <v>18</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="11">
         <v>18</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="11">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
     <row r="6" hidden="1" spans="1:11">
-      <c r="A6" s="15">
+      <c r="A6" s="16">
         <v>45630</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="11">
         <v>8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="11">
         <v>8</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="11">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
     <row r="7" hidden="1" spans="1:11">
-      <c r="A7" s="15">
+      <c r="A7" s="16">
         <v>45630</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="11">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="11">
         <v>6</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="11">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="1:11">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <v>45631</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="11">
         <v>2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="1:11">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>45632</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="11">
         <v>8</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="11">
         <v>4</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="11">
         <v>1</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="11">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:11">
-      <c r="A10" s="15">
+      <c r="A10" s="16">
         <v>45635</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="11">
         <v>7</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="11">
         <v>7</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="11">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:11">
-      <c r="A11" s="15">
+      <c r="A11" s="16">
         <v>45636</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="11">
         <v>5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="11">
         <v>5</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="12" hidden="1" spans="1:11">
-      <c r="A12" s="15">
+      <c r="A12" s="16">
         <v>45636</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="11">
         <v>5</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="11">
         <v>2</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="13" hidden="1" spans="1:11">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>45636</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="11">
         <v>2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="11">
         <v>2</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="14" hidden="1" spans="1:11">
-      <c r="A14" s="15">
+      <c r="A14" s="16">
         <v>45637</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="11">
         <v>3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="11">
         <v>4</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="11">
         <v>1</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="11">
         <v>4</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="11">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="15" hidden="1" spans="1:11">
-      <c r="A15" s="15">
+      <c r="A15" s="16">
         <v>45637</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="11">
         <v>2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="11">
         <v>1</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="16" hidden="1" spans="1:11">
-      <c r="A16" s="15">
+      <c r="A16" s="16">
         <v>45638</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="11">
         <v>3</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="11">
         <v>3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="11">
         <v>2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="11">
         <v>2</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="11">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="17" hidden="1" spans="1:11">
-      <c r="A17" s="15">
+      <c r="A17" s="16">
         <v>45638</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="11">
         <v>7</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="11">
         <v>7</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="11">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
     <row r="18" hidden="1" spans="1:11">
-      <c r="A18" s="15">
+      <c r="A18" s="16">
         <v>45638</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="11">
         <v>6</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="11">
         <v>6</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="11">
         <v>1</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="11">
         <v>6</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="11">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
     <row r="19" hidden="1" spans="1:11">
-      <c r="A19" s="15">
+      <c r="A19" s="16">
         <v>45639</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="11">
         <v>11</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="11">
         <v>5</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="11">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="20" hidden="1" spans="1:11">
-      <c r="A20" s="15">
+      <c r="A20" s="16">
         <v>45639</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="11">
         <v>4</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="11">
         <v>5</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="11">
         <v>4</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="11">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="21" hidden="1" spans="1:11">
-      <c r="A21" s="15">
+      <c r="A21" s="16">
         <v>45639</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="11">
         <v>17</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="11">
         <v>17</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="11">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="1:11">
-      <c r="A22" s="15">
+      <c r="A22" s="16">
         <v>45642</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="11">
         <v>1</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="11">
         <v>2</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="11">
         <v>1</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="11">
         <v>2</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="23" hidden="1" spans="1:11">
-      <c r="A23" s="15">
+      <c r="A23" s="16">
         <v>45643</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="11">
         <v>3</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="11">
         <v>14</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="11">
         <v>3</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="11">
         <v>14</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="11">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="1:11">
-      <c r="A24" s="15">
+      <c r="A24" s="16">
         <v>45643</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="11">
         <v>10</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="11">
         <v>1</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="11">
         <v>10</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="11">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="1:11">
-      <c r="A25" s="15">
+      <c r="A25" s="16">
         <v>45644</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="11">
         <v>5</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="11">
         <v>2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="11">
         <v>5</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="11">
         <v>2</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="11">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:11">
-      <c r="A26" s="15">
+      <c r="A26" s="16">
         <v>45644</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="11">
         <v>10</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="11">
         <v>5</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:11">
-      <c r="A27" s="15">
+      <c r="A27" s="16">
         <v>45644</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="11">
         <v>4</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="11">
         <v>20</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="11">
         <v>4</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="11">
         <v>20</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="11">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="1:11">
-      <c r="A28" s="15">
+      <c r="A28" s="16">
         <v>45644</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="11">
         <v>6</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="11">
         <v>6</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="11">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:11">
-      <c r="A29" s="15">
+      <c r="A29" s="16">
         <v>45645</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="11">
         <v>3</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="11">
         <v>10</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="11">
         <v>3</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="11">
         <v>10</v>
       </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="H29" s="14">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="11">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:11">
-      <c r="A30" s="15">
+      <c r="A30" s="16">
         <v>45645</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="11">
         <v>12</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="11">
         <v>12</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="14">
         <f t="shared" ref="H30:H75" si="4">D30-F30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="11">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:11">
-      <c r="A31" s="15">
+      <c r="A31" s="16">
         <v>45645</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="11">
         <v>1</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="11">
         <v>5</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="11">
         <v>1</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="11">
         <v>5</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="11">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:11">
-      <c r="A32" s="15">
+      <c r="A32" s="16">
         <v>45646</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="11">
         <v>11</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="11">
         <v>11</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="11">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:11">
-      <c r="A33" s="15">
+      <c r="A33" s="16">
         <v>45646</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="11">
         <v>9</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="11">
         <v>2</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:11">
-      <c r="A34" s="15">
+      <c r="A34" s="16">
         <v>45649</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="11">
         <v>2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="11">
         <v>2</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:11">
-      <c r="A35" s="15">
+      <c r="A35" s="16">
         <v>45650</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="11">
         <v>4</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="11">
         <v>2</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="11">
         <v>1</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="11">
         <v>2</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="14">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:11">
-      <c r="A36" s="15">
+      <c r="A36" s="16">
         <v>45652</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="11">
         <v>2</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="11">
         <v>7</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="11">
         <v>2</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="11">
         <v>7</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="11">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:11">
-      <c r="A37" s="15">
+      <c r="A37" s="16">
         <v>45652</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="11">
         <v>2</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="11">
         <v>4</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="11">
         <v>2</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="11">
         <v>4</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="11">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:11">
-      <c r="A38" s="15">
+      <c r="A38" s="16">
         <v>45652</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="11">
         <v>3</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="11">
         <v>3</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="11">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:11">
-      <c r="A39" s="15">
+      <c r="A39" s="16">
         <v>45653</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="11">
         <v>2</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="11">
         <v>2</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="15">
+      <c r="A40" s="16">
         <v>45659</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="11">
         <v>2</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="11">
         <v>9</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="11">
         <v>2</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="11">
         <v>6</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="11">
         <f t="shared" ref="K40:K75" si="5">G40+F40*0.5</f>
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="15">
+      <c r="A41" s="16">
         <v>45659</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="11">
         <v>3</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="11">
         <v>3</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="11">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="15">
+      <c r="A42" s="16">
         <v>45660</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="11">
         <v>1</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="11">
         <v>1</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="11">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="15">
+      <c r="A43" s="16">
         <v>45660</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="11">
         <v>7</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="11">
         <v>1</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="11">
         <v>7</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="11">
         <v>1</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="11">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="15">
+      <c r="A44" s="16">
         <v>45664</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="11">
         <v>3</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="11">
         <v>7</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="11">
         <v>2</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="14">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="11">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="11">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="15">
+      <c r="A45" s="16">
         <v>45665</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="11">
         <v>1</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="11">
         <v>1</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="11">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="15">
+      <c r="A46" s="16">
         <v>45665</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="11">
         <v>2</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="11">
         <v>8</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="11">
         <v>1</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="11">
         <v>3</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="11">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="15">
+      <c r="A47" s="16">
         <v>45670</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="11">
         <v>9</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="11">
         <v>9</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="11">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="15">
+      <c r="A48" s="16">
         <v>45671</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="11">
         <v>1</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="11">
         <v>4</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="11">
         <v>1</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="11">
         <v>4</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="11">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="15">
+      <c r="A49" s="16">
         <v>45672</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="11">
         <v>6</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="11">
         <v>6</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="11">
         <v>6</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="11">
         <v>5</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="11">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="19">
+      <c r="A50" s="20">
         <v>45670</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="11">
         <v>5</v>
       </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="13">
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="19">
+      <c r="A51" s="20">
         <v>45671</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="11">
         <v>22</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="11">
         <v>5</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="14">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="11">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="11">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="15">
+      <c r="A52" s="16">
         <v>45672</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="11">
         <v>2</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="11">
         <v>2</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="11">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="15">
+      <c r="A53" s="16">
         <v>45672</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="11">
         <v>4</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="15">
+      <c r="A54" s="16">
         <v>45672</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="11">
         <v>17</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="14">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="11">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="15">
+      <c r="A55" s="16">
         <v>45673</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="11">
         <v>1</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="11">
         <v>5</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="11">
         <v>1</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="11">
         <v>3</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="11">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="15">
+      <c r="A56" s="16">
         <v>45673</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="11">
         <v>1</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="11">
         <v>2</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="11">
         <v>1</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="11">
         <v>2</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="11">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="15">
+      <c r="A57" s="16">
         <v>45673</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="11">
         <v>3</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="11">
         <v>22</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="14">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="14">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="11">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="15">
+      <c r="A58" s="16">
         <v>45674</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="11">
         <v>2</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="11">
         <v>2</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="11">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="15">
+      <c r="A59" s="16">
         <v>45680</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="11">
         <v>1</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="11">
         <v>4</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="11">
         <v>1</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="11">
         <v>4</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="11">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="15">
+      <c r="A60" s="16">
         <v>45680</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="11">
         <v>2</v>
       </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="6">
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
         <v>1</v>
       </c>
-      <c r="G60" s="6">
-        <v>0</v>
-      </c>
-      <c r="H60" s="13">
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="11">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="15">
+      <c r="A61" s="16">
         <v>45681</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="11">
         <v>1</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="11">
         <v>1</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="11">
         <v>1</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="11">
         <v>1</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="11">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="8:11">
-      <c r="H62" s="13">
+    <row r="62" spans="1:11">
+      <c r="A62" s="16">
+        <v>45695</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1</v>
+      </c>
+      <c r="G62" s="11">
+        <v>1</v>
+      </c>
+      <c r="H62" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="8:11">
-      <c r="H63" s="13">
+      <c r="H63" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="8:11">
-      <c r="H64" s="13">
+      <c r="H64" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="8:11">
-      <c r="H65" s="13">
+      <c r="H65" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="8:11">
-      <c r="H66" s="13">
+      <c r="H66" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="14">
         <f t="shared" ref="I66:I75" si="6">E66-G66</f>
         <v>0</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="8:11">
-      <c r="H67" s="13">
+      <c r="H67" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="8:11">
-      <c r="H68" s="13">
+      <c r="H68" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="8:11">
-      <c r="H69" s="13">
+      <c r="H69" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="8:11">
-      <c r="H70" s="13">
+      <c r="H70" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="8:11">
-      <c r="H71" s="13">
+      <c r="H71" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="8:11">
-      <c r="H72" s="13">
+      <c r="H72" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="8:11">
-      <c r="H73" s="13">
+      <c r="H73" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="8:11">
-      <c r="H74" s="13">
+      <c r="H74" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="8:11">
-      <c r="H75" s="13">
+      <c r="H75" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4528,7 +4560,482 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:E88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1"/>
+    <col min="2" max="2" width="10.037037037037" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="59.95" customHeight="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" hidden="1" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="4" hidden="1" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:4">
+      <c r="A11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:4">
+      <c r="A12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:4">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:4">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:4">
+      <c r="A15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
+      <c r="D18" s="10">
+        <v>45682</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="1:4">
+      <c r="A19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <v>5</v>
+      </c>
+      <c r="D19" s="13">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:4">
+      <c r="A20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>6</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="13">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="13">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="13">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="13">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="13">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="13">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="13">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="13">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="13">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="9">
+        <v>5</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="13">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="13">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="13">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="13">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D35" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F62" sqref="F62"/>
@@ -4546,243 +5053,243 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" hidden="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" hidden="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" hidden="1" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>62</v>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" hidden="1" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>62</v>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>62</v>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>62</v>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="1:5">
-      <c r="A11" s="10" t="s">
+    </row>
+    <row r="12" hidden="1" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" hidden="1" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="E12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" hidden="1" spans="1:6">
-      <c r="A13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" hidden="1" spans="1:5">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>81</v>
+      <c r="B14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" hidden="1" spans="1:5">
@@ -4790,16 +5297,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>28690</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" hidden="1" spans="1:5">
@@ -4807,16 +5314,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1">
         <v>28690</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" hidden="1" spans="1:5">
@@ -4824,16 +5331,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1">
         <v>28690</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" hidden="1" spans="1:5">
@@ -4841,16 +5348,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1">
         <v>52101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" hidden="1" spans="1:5">
@@ -4858,16 +5365,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1">
         <v>52101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" hidden="1" spans="1:5">
@@ -4875,33 +5382,33 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1">
         <v>52101</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" hidden="1" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="1:5">
@@ -4909,183 +5416,183 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" hidden="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E32" s="1">
         <v>10000</v>
@@ -5093,53 +5600,53 @@
     </row>
     <row r="33" hidden="1" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:5">
@@ -5147,13 +5654,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E36" s="1">
         <v>1000</v>
@@ -5164,13 +5671,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:5">
@@ -5178,33 +5685,33 @@
         <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:5">
@@ -5212,50 +5719,50 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" hidden="1" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:5">
@@ -5263,16 +5770,16 @@
         <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:5">
@@ -5280,16 +5787,16 @@
         <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C44" s="1">
         <v>50919</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" hidden="1" spans="1:5">
@@ -5297,16 +5804,16 @@
         <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C45" s="1">
         <v>50919</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" hidden="1" spans="1:5">
@@ -5314,152 +5821,152 @@
         <v>17</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C46" s="1">
         <v>50919</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" hidden="1" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" hidden="1" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" hidden="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" hidden="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" hidden="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" hidden="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" hidden="1" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:5">
@@ -5467,64 +5974,64 @@
         <v>33</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" hidden="1" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" hidden="1" spans="1:5">
@@ -5532,16 +6039,16 @@
         <v>33</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:5">
@@ -5552,10 +6059,10 @@
         <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E60" s="1">
         <v>2000</v>
@@ -5566,26 +6073,26 @@
         <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C61" s="1">
         <v>81054</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E61" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
+      <c r="A62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="1">
         <f>COUNT(E63:E105)</f>
         <v>43</v>
@@ -5593,16 +6100,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E63" s="1">
         <v>1100</v>
@@ -5613,19 +6120,19 @@
         <v>28</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E64" s="1">
         <v>2.19</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5633,13 +6140,13 @@
         <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E65" s="1">
         <v>10</v>
@@ -5647,16 +6154,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E66" s="1">
         <v>730</v>
@@ -5664,16 +6171,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E67" s="1">
         <v>20</v>
@@ -5684,13 +6191,13 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C68" s="1">
         <v>53167</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E68" s="1">
         <v>10</v>
@@ -5698,16 +6205,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E69" s="1">
         <v>10</v>
@@ -5718,13 +6225,13 @@
         <v>15</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C70" s="1">
         <v>83932</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E70" s="1">
         <v>18</v>
@@ -5735,13 +6242,13 @@
         <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C71" s="1">
         <v>28690</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E71" s="1">
         <v>10</v>
@@ -5752,13 +6259,13 @@
         <v>13</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C72" s="1">
         <v>28690</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E72" s="1">
         <v>10</v>
@@ -5769,13 +6276,13 @@
         <v>11</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>69</v>
+        <v>209</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E73" s="1">
         <v>42</v>
@@ -5786,13 +6293,13 @@
         <v>15</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C74" s="1">
         <v>83932</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E74" s="1">
         <v>10</v>
@@ -5803,19 +6310,19 @@
         <v>28</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E75" s="1">
         <v>2</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5823,13 +6330,13 @@
         <v>13</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C76" s="1">
         <v>28690</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E76" s="1">
         <v>10</v>
@@ -5840,13 +6347,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C77" s="1">
         <v>53167</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E77" s="1">
         <v>25</v>
@@ -5857,13 +6364,13 @@
         <v>15</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C78" s="1">
         <v>83932</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E78" s="1">
         <v>10</v>
@@ -5874,13 +6381,13 @@
         <v>19</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E79" s="1">
         <v>16</v>
@@ -5891,13 +6398,13 @@
         <v>11</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E80" s="1">
         <v>10</v>
@@ -5908,13 +6415,13 @@
         <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C81" s="1">
         <v>53167</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E81" s="1">
         <v>10</v>
@@ -5922,16 +6429,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E82" s="1">
         <v>50</v>
@@ -5939,16 +6446,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E83" s="1">
         <v>10</v>
@@ -5956,16 +6463,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E84" s="1">
         <v>60</v>
@@ -5976,183 +6483,183 @@
         <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C85" s="1">
         <v>81606</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E85" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>218</v>
+      <c r="A86" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="C86" s="1">
         <v>28316</v>
       </c>
-      <c r="D86" s="12" t="s">
-        <v>219</v>
+      <c r="D86" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="E86" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>220</v>
+      <c r="A87" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="C87" s="1">
         <v>28316</v>
       </c>
-      <c r="D87" s="12" t="s">
-        <v>221</v>
+      <c r="D87" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="E87" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>222</v>
+      <c r="A88" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C88" s="1">
         <v>28316</v>
       </c>
-      <c r="D88" s="12" t="s">
-        <v>223</v>
+      <c r="D88" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="E88" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>224</v>
+      <c r="A89" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="C89" s="1">
         <v>28316</v>
       </c>
-      <c r="D89" s="12" t="s">
-        <v>225</v>
+      <c r="D89" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="E89" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>226</v>
+      <c r="A90" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="C90" s="1">
         <v>28316</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>227</v>
+      <c r="D90" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="E90" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>228</v>
+      <c r="A91" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="C91" s="1">
         <v>28316</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>227</v>
+      <c r="D91" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="E91" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>229</v>
+      <c r="A92" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="C92" s="1">
         <v>28316</v>
       </c>
-      <c r="D92" s="12" t="s">
-        <v>227</v>
+      <c r="D92" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="E92" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>230</v>
+      <c r="A93" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C93" s="1">
         <v>83599</v>
       </c>
-      <c r="D93" s="12" t="s">
-        <v>231</v>
+      <c r="D93" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="E93" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>232</v>
+      <c r="A94" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="1">
         <v>50381</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>233</v>
+      <c r="D94" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="E94" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>234</v>
+      <c r="A95" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="C95" s="1">
         <v>83599</v>
       </c>
-      <c r="D95" s="12" t="s">
-        <v>233</v>
+      <c r="D95" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="E95" s="1">
         <v>20</v>
@@ -6160,16 +6667,16 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E96" s="1">
         <v>15</v>
@@ -6177,16 +6684,16 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -6194,16 +6701,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E98" s="1">
         <v>20</v>
@@ -6211,16 +6718,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E99" s="1">
         <v>10</v>
@@ -6228,16 +6735,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E100" s="1">
         <v>15</v>
@@ -6245,16 +6752,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E101" s="1">
         <v>16.5</v>
@@ -6262,16 +6769,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E102" s="1">
         <v>10</v>
@@ -6279,16 +6786,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E103" s="1">
         <v>10</v>
@@ -6296,16 +6803,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E104" s="1">
         <v>10</v>
@@ -6313,16 +6820,16 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E105" s="1">
         <v>10</v>
@@ -6330,16 +6837,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E106" s="1">
         <v>11</v>
@@ -6347,16 +6854,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E107" s="1">
         <v>10</v>
@@ -6364,16 +6871,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E108" s="1">
         <v>100</v>
@@ -6383,14 +6890,14 @@
       <c r="A109" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B109" s="21" t="s">
-        <v>258</v>
+      <c r="B109" s="22" t="s">
+        <v>263</v>
       </c>
       <c r="C109" s="1">
         <v>92856</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E109" s="1">
         <v>14</v>
@@ -6400,14 +6907,14 @@
       <c r="A110" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B110" s="21" t="s">
-        <v>259</v>
+      <c r="B110" s="22" t="s">
+        <v>264</v>
       </c>
       <c r="C110" s="1">
         <v>84130</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E110" s="1">
         <v>30</v>
@@ -6418,304 +6925,55 @@
         <v>17</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C111" s="1">
         <v>50378</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E111" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="1">
-        <f>COUNT(E118:E160)</f>
-        <v>0</v>
+    <row r="112" spans="6:6">
+      <c r="F112" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="1">
+        <f>COUNT(E114:E156)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C114" s="1">
+        <v>83932</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:E88"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="2" width="10.037037037037" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.2296296296296" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="59.95" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>45673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5">
-        <v>45677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5">
-        <v>45677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>45679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>45680</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5">
-        <v>45680</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>45680</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
-        <v>45680</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>45680</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>45679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5">
-        <v>45681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>45681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5">
-        <v>45681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5">
-        <v>45682</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8">
-        <v>45683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1">
-        <v>15</v>
-      </c>
-      <c r="D20" s="8">
-        <v>45684</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6724,8 +6982,9 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="1">
   <rangeList sheetStid="2" master="249225240" otherUserPermission="edit"/>
-  <rangeList sheetStid="3" master="249225240" otherUserPermission="edit"/>
+  <rangeList sheetStid="3" master="" otherUserPermission="edit"/>
   <rangeList sheetStid="4" master="" otherUserPermission="edit"/>
+  <rangeList sheetStid="5" master="249225240" otherUserPermission="edit"/>
 </allowEditUser>
 </file>
 
@@ -7023,6 +7282,14 @@
       <appEtDbRelations/>
     </woSheetProps>
     <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="4" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="5" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
       <cellprotection>
         <ref row="1" col="1" owner="620620905"/>
         <ref row="1" col="2" owner="620620905"/>
@@ -7240,15 +7507,13 @@
         <ref row="109" col="2" owner="1001189704"/>
         <ref row="110" col="1" owner="1001189704"/>
         <ref row="110" col="2" owner="1001189704"/>
+        <ref row="113" col="1" owner="260146185"/>
+        <ref row="113" col="2" owner="260146185"/>
       </cellprotection>
       <protectedCols>
         <ref col="1" count="1"/>
         <ref col="2" count="1"/>
       </protectedCols>
-      <appEtDbRelations/>
-    </woSheetProps>
-    <woSheetProps sheetStid="4" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
-      <cellprotection/>
       <appEtDbRelations/>
     </woSheetProps>
   </woSheetsProps>
@@ -7263,6 +7528,7 @@
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
   <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
 </pixelators>
 </file>
 
